--- a/src/TIN_検査データ.xlsx
+++ b/src/TIN_検査データ.xlsx
@@ -450,8 +450,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -476,7 +484,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -486,6 +494,10 @@
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -496,6 +508,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -826,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
